--- a/Copy of Curious Freaks Coding Sheet.xlsx
+++ b/Copy of Curious Freaks Coding Sheet.xlsx
@@ -3989,10 +3989,10 @@
   <dimension ref="A1:G1505"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.37"/>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21"/>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="32" t="s">
         <v>93</v>
       </c>
       <c r="C54" s="22" t="s">

--- a/Copy of Curious Freaks Coding Sheet.xlsx
+++ b/Copy of Curious Freaks Coding Sheet.xlsx
@@ -3435,7 +3435,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3456,8 +3456,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -3572,7 +3584,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3693,6 +3705,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3701,7 +3717,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3787,10 +3811,6 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3936,7 +3956,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -3988,11 +4008,11 @@
   </sheetPr>
   <dimension ref="A1:G1505"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.37"/>
@@ -4578,7 +4598,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="20"/>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="21"/>
@@ -4593,7 +4613,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="20"/>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C42" s="22" t="s">
@@ -4628,11 +4648,11 @@
       <c r="D44" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
+      <c r="E44" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21"/>
@@ -4738,7 +4758,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21"/>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="30" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="22" t="s">
@@ -4772,7 +4792,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21"/>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="33" t="s">
         <v>91</v>
       </c>
       <c r="C53" s="22" t="s">
@@ -4789,7 +4809,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21"/>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="33" t="s">
         <v>93</v>
       </c>
       <c r="C54" s="22" t="s">
@@ -4823,15 +4843,15 @@
       <c r="D56" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
+      <c r="E56" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21"/>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C57" s="22" t="s">
@@ -4848,7 +4868,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21"/>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="34" t="s">
         <v>100</v>
       </c>
       <c r="C58" s="22" t="s">
@@ -4865,7 +4885,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21"/>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="34" t="s">
         <v>102</v>
       </c>
       <c r="C59" s="22" t="s">
@@ -4882,7 +4902,7 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21"/>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="35" t="s">
         <v>104</v>
       </c>
       <c r="C60" s="22" t="s">
@@ -4915,34 +4935,34 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="37" t="s">
         <v>109</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="E62" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="17" t="s">
@@ -4952,7 +4972,7 @@
         <v>113</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="D64" s="39"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
@@ -4974,11 +4994,11 @@
       <c r="D66" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E66" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
+      <c r="E66" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21"/>
@@ -5086,14 +5106,14 @@
       <c r="A73" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="43" t="s">
         <v>129</v>
       </c>
       <c r="C73" s="18"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="20" t="s">
@@ -5106,11 +5126,11 @@
       <c r="D74" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
+      <c r="E74" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="20"/>
@@ -5147,21 +5167,21 @@
       <c r="G76" s="24"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="42"/>
-      <c r="B77" s="33" t="s">
+      <c r="A77" s="45"/>
+      <c r="B77" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="37" t="s">
         <v>136</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E77" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
+      <c r="E77" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="20"/>
@@ -5174,11 +5194,11 @@
       <c r="D78" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
+      <c r="E78" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="20"/>
@@ -5235,11 +5255,11 @@
       <c r="A82" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="48" t="s">
         <v>147</v>
       </c>
       <c r="C82" s="18"/>
-      <c r="D82" s="39"/>
+      <c r="D82" s="42"/>
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
@@ -5325,7 +5345,7 @@
       <c r="B88" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="46" t="s">
+      <c r="C88" s="49" t="s">
         <v>158</v>
       </c>
       <c r="D88" s="25" t="s">
@@ -5545,7 +5565,7 @@
       <c r="G102" s="24"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="47" t="s">
+      <c r="A103" s="50" t="s">
         <v>184</v>
       </c>
       <c r="B103" s="21"/>
@@ -5611,7 +5631,7 @@
       <c r="C107" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D107" s="48" t="s">
+      <c r="D107" s="51" t="s">
         <v>21</v>
       </c>
       <c r="E107" s="23" t="s">
@@ -5717,51 +5737,51 @@
       <c r="G113" s="24"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="42"/>
-      <c r="B114" s="33" t="s">
+      <c r="A114" s="45"/>
+      <c r="B114" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="C114" s="49" t="s">
+      <c r="C114" s="52" t="s">
         <v>206</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E114" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
+      <c r="E114" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" s="39"/>
+      <c r="G114" s="39"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="42"/>
-      <c r="B115" s="33" t="s">
+      <c r="A115" s="45"/>
+      <c r="B115" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C115" s="49" t="s">
+      <c r="C115" s="52" t="s">
         <v>208</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E115" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
+      <c r="E115" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B116" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="C116" s="50"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="54"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="20" t="s">
@@ -5854,12 +5874,12 @@
       <c r="A122" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B122" s="52"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="53"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="56"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="56"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="20" t="s">
@@ -5872,11 +5892,11 @@
       <c r="D123" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E123" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
+      <c r="E123" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="20"/>
@@ -5887,11 +5907,11 @@
       <c r="D124" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E124" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F124" s="31"/>
-      <c r="G124" s="31"/>
+      <c r="E124" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="20"/>
@@ -5904,11 +5924,11 @@
       <c r="D125" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E125" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="31"/>
-      <c r="G125" s="31"/>
+      <c r="E125" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="20"/>
@@ -6040,11 +6060,11 @@
       <c r="D133" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E133" s="30" t="s">
+      <c r="E133" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="F133" s="31"/>
-      <c r="G133" s="31"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="20" t="s">
@@ -6515,7 +6535,7 @@
       </c>
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
-      <c r="D164" s="39"/>
+      <c r="D164" s="42"/>
       <c r="E164" s="19"/>
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
@@ -6659,11 +6679,11 @@
       <c r="D174" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E174" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F174" s="31"/>
-      <c r="G174" s="31"/>
+      <c r="E174" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174" s="32"/>
+      <c r="G174" s="32"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="20"/>
@@ -6928,21 +6948,21 @@
       <c r="G191" s="24"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="42"/>
-      <c r="B192" s="54" t="s">
+      <c r="A192" s="45"/>
+      <c r="B192" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="C192" s="55" t="s">
+      <c r="C192" s="57" t="s">
         <v>345</v>
       </c>
       <c r="D192" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E192" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F192" s="57"/>
-      <c r="G192" s="57"/>
+      <c r="E192" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="59"/>
+      <c r="G192" s="59"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="17" t="s">
@@ -6950,7 +6970,7 @@
       </c>
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
-      <c r="D193" s="39"/>
+      <c r="D193" s="42"/>
       <c r="E193" s="19"/>
       <c r="F193" s="19"/>
       <c r="G193" s="19"/>
@@ -7055,9 +7075,9 @@
       <c r="B200" s="21"/>
       <c r="C200" s="21"/>
       <c r="D200" s="29"/>
-      <c r="E200" s="57"/>
-      <c r="F200" s="57"/>
-      <c r="G200" s="57"/>
+      <c r="E200" s="59"/>
+      <c r="F200" s="59"/>
+      <c r="G200" s="59"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="20"/>
@@ -7145,21 +7165,21 @@
       <c r="G205" s="24"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="42"/>
-      <c r="B206" s="54" t="s">
+      <c r="A206" s="45"/>
+      <c r="B206" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="C206" s="55" t="s">
+      <c r="C206" s="57" t="s">
         <v>368</v>
       </c>
       <c r="D206" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E206" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F206" s="57"/>
-      <c r="G206" s="57"/>
+      <c r="E206" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" s="59"/>
+      <c r="G206" s="59"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="17" t="s">
@@ -7168,10 +7188,10 @@
       <c r="B207" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="C207" s="45" t="s">
+      <c r="C207" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="D207" s="39"/>
+      <c r="D207" s="42"/>
       <c r="E207" s="19"/>
       <c r="F207" s="19"/>
       <c r="G207" s="19"/>
@@ -7280,11 +7300,11 @@
       <c r="D214" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E214" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F214" s="57"/>
-      <c r="G214" s="57"/>
+      <c r="E214" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F214" s="59"/>
+      <c r="G214" s="59"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="20" t="s">
@@ -7390,11 +7410,11 @@
       <c r="D221" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E221" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F221" s="57"/>
-      <c r="G221" s="57"/>
+      <c r="E221" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F221" s="59"/>
+      <c r="G221" s="59"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="20"/>
@@ -7555,22 +7575,22 @@
       <c r="D231" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E231" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F231" s="57"/>
-      <c r="G231" s="57"/>
+      <c r="E231" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F231" s="59"/>
+      <c r="G231" s="59"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="B232" s="52"/>
-      <c r="C232" s="52"/>
-      <c r="D232" s="39"/>
-      <c r="E232" s="53"/>
-      <c r="F232" s="53"/>
-      <c r="G232" s="53"/>
+      <c r="B232" s="55"/>
+      <c r="C232" s="55"/>
+      <c r="D232" s="42"/>
+      <c r="E232" s="56"/>
+      <c r="F232" s="56"/>
+      <c r="G232" s="56"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="20" t="s">
@@ -7731,11 +7751,11 @@
       <c r="D242" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E242" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F242" s="57"/>
-      <c r="G242" s="57"/>
+      <c r="E242" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F242" s="59"/>
+      <c r="G242" s="59"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="20"/>
@@ -7778,9 +7798,9 @@
       <c r="B245" s="21"/>
       <c r="C245" s="21"/>
       <c r="D245" s="29"/>
-      <c r="E245" s="57"/>
-      <c r="F245" s="57"/>
-      <c r="G245" s="57"/>
+      <c r="E245" s="59"/>
+      <c r="F245" s="59"/>
+      <c r="G245" s="59"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="20"/>
@@ -8405,7 +8425,7 @@
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="20"/>
-      <c r="B284" s="54" t="s">
+      <c r="B284" s="35" t="s">
         <v>516</v>
       </c>
       <c r="C284" s="22" t="s">
@@ -8554,36 +8574,36 @@
       <c r="A293" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="B293" s="58" t="s">
+      <c r="B293" s="60" t="s">
         <v>534</v>
       </c>
-      <c r="C293" s="59" t="s">
+      <c r="C293" s="61" t="s">
         <v>535</v>
       </c>
-      <c r="D293" s="39"/>
-      <c r="E293" s="60"/>
-      <c r="F293" s="60"/>
-      <c r="G293" s="60"/>
+      <c r="D293" s="42"/>
+      <c r="E293" s="62"/>
+      <c r="F293" s="62"/>
+      <c r="G293" s="62"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="61" t="s">
+      <c r="A294" s="63" t="s">
         <v>536</v>
       </c>
-      <c r="B294" s="61" t="s">
+      <c r="B294" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="C294" s="62"/>
+      <c r="C294" s="64"/>
       <c r="D294" s="29"/>
-      <c r="E294" s="63"/>
-      <c r="F294" s="63"/>
-      <c r="G294" s="63"/>
+      <c r="E294" s="65"/>
+      <c r="F294" s="65"/>
+      <c r="G294" s="65"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="61"/>
-      <c r="B295" s="33" t="s">
+      <c r="A295" s="63"/>
+      <c r="B295" s="36" t="s">
         <v>538</v>
       </c>
-      <c r="C295" s="34" t="s">
+      <c r="C295" s="37" t="s">
         <v>539</v>
       </c>
       <c r="D295" s="25" t="s">
@@ -8596,11 +8616,11 @@
       <c r="G295" s="24"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="61"/>
-      <c r="B296" s="33" t="s">
+      <c r="A296" s="63"/>
+      <c r="B296" s="36" t="s">
         <v>540</v>
       </c>
-      <c r="C296" s="34" t="s">
+      <c r="C296" s="37" t="s">
         <v>541</v>
       </c>
       <c r="D296" s="25" t="s">
@@ -8613,11 +8633,11 @@
       <c r="G296" s="24"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="61"/>
-      <c r="B297" s="33" t="s">
+      <c r="A297" s="63"/>
+      <c r="B297" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="C297" s="34" t="s">
+      <c r="C297" s="37" t="s">
         <v>543</v>
       </c>
       <c r="D297" s="25" t="s">
@@ -8630,11 +8650,11 @@
       <c r="G297" s="24"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="61"/>
-      <c r="B298" s="33" t="s">
+      <c r="A298" s="63"/>
+      <c r="B298" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="C298" s="34" t="s">
+      <c r="C298" s="37" t="s">
         <v>545</v>
       </c>
       <c r="D298" s="25" t="s">
@@ -8647,11 +8667,11 @@
       <c r="G298" s="24"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="61"/>
-      <c r="B299" s="33" t="s">
+      <c r="A299" s="63"/>
+      <c r="B299" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="C299" s="34" t="s">
+      <c r="C299" s="37" t="s">
         <v>547</v>
       </c>
       <c r="D299" s="29" t="s">
@@ -8664,11 +8684,11 @@
       <c r="G299" s="24"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="61"/>
-      <c r="B300" s="33" t="s">
+      <c r="A300" s="63"/>
+      <c r="B300" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="C300" s="34" t="s">
+      <c r="C300" s="37" t="s">
         <v>549</v>
       </c>
       <c r="D300" s="25" t="s">
@@ -8681,11 +8701,11 @@
       <c r="G300" s="24"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="61"/>
-      <c r="B301" s="33" t="s">
+      <c r="A301" s="63"/>
+      <c r="B301" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="C301" s="34" t="s">
+      <c r="C301" s="37" t="s">
         <v>551</v>
       </c>
       <c r="D301" s="25" t="s">
@@ -8698,11 +8718,11 @@
       <c r="G301" s="24"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="61"/>
-      <c r="B302" s="33" t="s">
+      <c r="A302" s="63"/>
+      <c r="B302" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="C302" s="34" t="s">
+      <c r="C302" s="37" t="s">
         <v>553</v>
       </c>
       <c r="D302" s="25" t="s">
@@ -8715,11 +8735,11 @@
       <c r="G302" s="24"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="61"/>
-      <c r="B303" s="33" t="s">
+      <c r="A303" s="63"/>
+      <c r="B303" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="C303" s="34" t="s">
+      <c r="C303" s="37" t="s">
         <v>555</v>
       </c>
       <c r="D303" s="22" t="s">
@@ -8732,11 +8752,11 @@
       <c r="G303" s="24"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="61"/>
-      <c r="B304" s="33" t="s">
+      <c r="A304" s="63"/>
+      <c r="B304" s="36" t="s">
         <v>556</v>
       </c>
-      <c r="C304" s="34" t="s">
+      <c r="C304" s="37" t="s">
         <v>557</v>
       </c>
       <c r="D304" s="25" t="s">
@@ -8749,11 +8769,11 @@
       <c r="G304" s="24"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="61"/>
-      <c r="B305" s="33" t="s">
+      <c r="A305" s="63"/>
+      <c r="B305" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="C305" s="34" t="s">
+      <c r="C305" s="37" t="s">
         <v>559</v>
       </c>
       <c r="D305" s="29"/>
@@ -8762,11 +8782,11 @@
       <c r="G305" s="24"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="61"/>
-      <c r="B306" s="33" t="s">
+      <c r="A306" s="63"/>
+      <c r="B306" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="C306" s="34" t="s">
+      <c r="C306" s="37" t="s">
         <v>561</v>
       </c>
       <c r="D306" s="25" t="s">
@@ -8779,11 +8799,11 @@
       <c r="G306" s="24"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="61"/>
-      <c r="B307" s="33" t="s">
+      <c r="A307" s="63"/>
+      <c r="B307" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="C307" s="34" t="s">
+      <c r="C307" s="37" t="s">
         <v>563</v>
       </c>
       <c r="D307" s="25" t="s">
@@ -8796,11 +8816,11 @@
       <c r="G307" s="24"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="61"/>
-      <c r="B308" s="33" t="s">
+      <c r="A308" s="63"/>
+      <c r="B308" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="C308" s="34" t="s">
+      <c r="C308" s="37" t="s">
         <v>565</v>
       </c>
       <c r="D308" s="25" t="s">
@@ -8813,11 +8833,11 @@
       <c r="G308" s="24"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="61"/>
-      <c r="B309" s="33" t="s">
+      <c r="A309" s="63"/>
+      <c r="B309" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="C309" s="34" t="s">
+      <c r="C309" s="37" t="s">
         <v>567</v>
       </c>
       <c r="D309" s="25" t="s">
@@ -8830,11 +8850,11 @@
       <c r="G309" s="24"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="61"/>
-      <c r="B310" s="33" t="s">
+      <c r="A310" s="63"/>
+      <c r="B310" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="C310" s="34" t="s">
+      <c r="C310" s="37" t="s">
         <v>569</v>
       </c>
       <c r="D310" s="25" t="s">
@@ -8851,7 +8871,7 @@
       <c r="B311" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="C311" s="64" t="s">
+      <c r="C311" s="66" t="s">
         <v>571</v>
       </c>
       <c r="D311" s="25" t="s">
@@ -8864,11 +8884,11 @@
       <c r="G311" s="24"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="61"/>
-      <c r="B312" s="33" t="s">
+      <c r="A312" s="63"/>
+      <c r="B312" s="36" t="s">
         <v>572</v>
       </c>
-      <c r="C312" s="34" t="s">
+      <c r="C312" s="37" t="s">
         <v>573</v>
       </c>
       <c r="D312" s="25" t="s">
@@ -8881,11 +8901,11 @@
       <c r="G312" s="24"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="61"/>
-      <c r="B313" s="33" t="s">
+      <c r="A313" s="63"/>
+      <c r="B313" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="C313" s="34" t="s">
+      <c r="C313" s="37" t="s">
         <v>575</v>
       </c>
       <c r="D313" s="25" t="s">
@@ -8898,11 +8918,11 @@
       <c r="G313" s="24"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="61"/>
-      <c r="B314" s="33" t="s">
+      <c r="A314" s="63"/>
+      <c r="B314" s="36" t="s">
         <v>576</v>
       </c>
-      <c r="C314" s="34" t="s">
+      <c r="C314" s="37" t="s">
         <v>577</v>
       </c>
       <c r="D314" s="22" t="s">
@@ -8915,11 +8935,11 @@
       <c r="G314" s="24"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="61"/>
-      <c r="B315" s="33" t="s">
+      <c r="A315" s="63"/>
+      <c r="B315" s="36" t="s">
         <v>578</v>
       </c>
-      <c r="C315" s="34" t="s">
+      <c r="C315" s="37" t="s">
         <v>579</v>
       </c>
       <c r="D315" s="25" t="s">
@@ -8932,11 +8952,11 @@
       <c r="G315" s="24"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="61"/>
-      <c r="B316" s="33" t="s">
+      <c r="A316" s="63"/>
+      <c r="B316" s="36" t="s">
         <v>580</v>
       </c>
-      <c r="C316" s="34" t="s">
+      <c r="C316" s="37" t="s">
         <v>581</v>
       </c>
       <c r="D316" s="25" t="s">
@@ -8949,11 +8969,11 @@
       <c r="G316" s="24"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="61"/>
-      <c r="B317" s="33" t="s">
+      <c r="A317" s="63"/>
+      <c r="B317" s="36" t="s">
         <v>582</v>
       </c>
-      <c r="C317" s="34" t="s">
+      <c r="C317" s="37" t="s">
         <v>583</v>
       </c>
       <c r="D317" s="25" t="s">
@@ -8966,11 +8986,11 @@
       <c r="G317" s="24"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="61"/>
-      <c r="B318" s="33" t="s">
+      <c r="A318" s="63"/>
+      <c r="B318" s="36" t="s">
         <v>584</v>
       </c>
-      <c r="C318" s="34" t="s">
+      <c r="C318" s="37" t="s">
         <v>585</v>
       </c>
       <c r="D318" s="25" t="s">
@@ -8989,10 +9009,10 @@
       <c r="B319" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="C319" s="45" t="s">
+      <c r="C319" s="48" t="s">
         <v>588</v>
       </c>
-      <c r="D319" s="39"/>
+      <c r="D319" s="42"/>
       <c r="E319" s="19"/>
       <c r="F319" s="19"/>
       <c r="G319" s="19"/>
@@ -9448,7 +9468,7 @@
       <c r="A347" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="B347" s="65"/>
+      <c r="B347" s="67"/>
       <c r="C347" s="21"/>
       <c r="D347" s="29"/>
     </row>
@@ -9720,7 +9740,7 @@
       <c r="C364" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="D364" s="31" t="s">
+      <c r="D364" s="32" t="s">
         <v>21</v>
       </c>
       <c r="E364" s="23" t="s">
@@ -9982,12 +10002,12 @@
       <c r="A381" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="B381" s="50"/>
-      <c r="C381" s="50"/>
-      <c r="D381" s="51"/>
-      <c r="E381" s="66"/>
-      <c r="F381" s="66"/>
-      <c r="G381" s="66"/>
+      <c r="B381" s="53"/>
+      <c r="C381" s="53"/>
+      <c r="D381" s="54"/>
+      <c r="E381" s="68"/>
+      <c r="F381" s="68"/>
+      <c r="G381" s="68"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="20" t="s">
@@ -10290,7 +10310,7 @@
       <c r="B400" s="21" t="s">
         <v>738</v>
       </c>
-      <c r="C400" s="67" t="s">
+      <c r="C400" s="69" t="s">
         <v>739</v>
       </c>
       <c r="D400" s="29" t="s">
@@ -10307,7 +10327,7 @@
       <c r="B401" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="C401" s="67" t="s">
+      <c r="C401" s="69" t="s">
         <v>741</v>
       </c>
       <c r="D401" s="29" t="s">
@@ -10341,7 +10361,7 @@
       <c r="B403" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="C403" s="68" t="s">
+      <c r="C403" s="70" t="s">
         <v>745</v>
       </c>
       <c r="D403" s="25" t="s">
@@ -10394,7 +10414,7 @@
       <c r="B406" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="C406" s="45" t="s">
+      <c r="C406" s="48" t="s">
         <v>752</v>
       </c>
       <c r="D406" s="19"/>
@@ -10415,7 +10435,7 @@
         <v>753</v>
       </c>
       <c r="C408" s="21"/>
-      <c r="D408" s="69" t="s">
+      <c r="D408" s="71" t="s">
         <v>21</v>
       </c>
       <c r="E408" s="24" t="s">
@@ -10430,7 +10450,7 @@
       </c>
       <c r="B409" s="21"/>
       <c r="C409" s="21"/>
-      <c r="D409" s="54"/>
+      <c r="D409" s="35"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="20"/>
@@ -10440,7 +10460,7 @@
       <c r="C410" s="22" t="s">
         <v>756</v>
       </c>
-      <c r="D410" s="54" t="s">
+      <c r="D410" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E410" s="23" t="s">
@@ -10457,7 +10477,7 @@
       <c r="C411" s="22" t="s">
         <v>758</v>
       </c>
-      <c r="D411" s="70" t="s">
+      <c r="D411" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E411" s="23" t="s">
@@ -10468,13 +10488,13 @@
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="20"/>
-      <c r="B412" s="31" t="s">
+      <c r="B412" s="32" t="s">
         <v>759</v>
       </c>
       <c r="C412" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="D412" s="70" t="s">
+      <c r="D412" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E412" s="23" t="s">
@@ -10491,7 +10511,7 @@
       <c r="C413" s="22" t="s">
         <v>762</v>
       </c>
-      <c r="D413" s="54"/>
+      <c r="D413" s="35"/>
       <c r="E413" s="23" t="s">
         <v>22</v>
       </c>
@@ -10506,7 +10526,7 @@
       <c r="C414" s="22" t="s">
         <v>764</v>
       </c>
-      <c r="D414" s="70" t="s">
+      <c r="D414" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E414" s="24" t="s">
@@ -10521,7 +10541,7 @@
       </c>
       <c r="B415" s="21"/>
       <c r="C415" s="21"/>
-      <c r="D415" s="54"/>
+      <c r="D415" s="35"/>
       <c r="E415" s="24" t="s">
         <v>22</v>
       </c>
@@ -10536,7 +10556,7 @@
       <c r="C416" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="D416" s="70" t="s">
+      <c r="D416" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E416" s="23" t="s">
@@ -10553,7 +10573,7 @@
       <c r="C417" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="D417" s="70" t="s">
+      <c r="D417" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E417" s="24" t="s">
@@ -10570,7 +10590,7 @@
       <c r="C418" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="D418" s="54" t="s">
+      <c r="D418" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E418" s="23" t="s">
@@ -10587,7 +10607,7 @@
       <c r="C419" s="22" t="s">
         <v>773</v>
       </c>
-      <c r="D419" s="70" t="s">
+      <c r="D419" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E419" s="24" t="s">
@@ -10604,7 +10624,7 @@
       <c r="C420" s="22" t="s">
         <v>775</v>
       </c>
-      <c r="D420" s="54" t="s">
+      <c r="D420" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E420" s="23" t="s">
@@ -10621,7 +10641,7 @@
       <c r="C421" s="22" t="s">
         <v>777</v>
       </c>
-      <c r="D421" s="70" t="s">
+      <c r="D421" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E421" s="24" t="s">
@@ -10638,7 +10658,7 @@
       <c r="C422" s="22" t="s">
         <v>779</v>
       </c>
-      <c r="D422" s="31" t="s">
+      <c r="D422" s="32" t="s">
         <v>21</v>
       </c>
       <c r="E422" s="23" t="s">
@@ -10655,7 +10675,7 @@
       <c r="C423" s="22" t="s">
         <v>781</v>
       </c>
-      <c r="D423" s="30" t="s">
+      <c r="D423" s="31" t="s">
         <v>21</v>
       </c>
       <c r="E423" s="24" t="s">
@@ -10672,7 +10692,7 @@
       <c r="C424" s="22" t="s">
         <v>783</v>
       </c>
-      <c r="D424" s="31" t="s">
+      <c r="D424" s="32" t="s">
         <v>21</v>
       </c>
       <c r="E424" s="24" t="s">
@@ -10699,7 +10719,7 @@
       <c r="C426" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="D426" s="69" t="s">
+      <c r="D426" s="71" t="s">
         <v>21</v>
       </c>
       <c r="E426" s="24" t="s">
@@ -10716,7 +10736,7 @@
       <c r="C427" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="D427" s="70" t="s">
+      <c r="D427" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E427" s="24" t="s">
@@ -10733,7 +10753,7 @@
       <c r="C428" s="22" t="s">
         <v>790</v>
       </c>
-      <c r="D428" s="70" t="s">
+      <c r="D428" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E428" s="23" t="s">
@@ -10750,7 +10770,7 @@
       <c r="C429" s="22" t="s">
         <v>792</v>
       </c>
-      <c r="D429" s="70" t="s">
+      <c r="D429" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E429" s="24" t="s">
@@ -10765,7 +10785,7 @@
         <v>793</v>
       </c>
       <c r="C430" s="21"/>
-      <c r="D430" s="70" t="s">
+      <c r="D430" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E430" s="24" t="s">
@@ -10782,7 +10802,7 @@
       <c r="C431" s="22" t="s">
         <v>795</v>
       </c>
-      <c r="D431" s="70" t="s">
+      <c r="D431" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E431" s="23" t="s">
@@ -10799,7 +10819,7 @@
       <c r="C432" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="D432" s="70" t="s">
+      <c r="D432" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E432" s="24" t="s">
@@ -10816,7 +10836,7 @@
       <c r="C433" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="D433" s="70" t="s">
+      <c r="D433" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E433" s="23" t="s">
@@ -10833,7 +10853,7 @@
       <c r="C434" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="D434" s="70" t="s">
+      <c r="D434" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E434" s="23" t="s">
@@ -10850,7 +10870,7 @@
       <c r="C435" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="D435" s="70" t="s">
+      <c r="D435" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E435" s="24" t="s">
@@ -10867,7 +10887,7 @@
       <c r="C436" s="22" t="s">
         <v>805</v>
       </c>
-      <c r="D436" s="70" t="s">
+      <c r="D436" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E436" s="24"/>
@@ -10882,7 +10902,7 @@
       <c r="C437" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="D437" s="54" t="s">
+      <c r="D437" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E437" s="24" t="s">
@@ -10899,7 +10919,7 @@
       <c r="C438" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="D438" s="70" t="s">
+      <c r="D438" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E438" s="23" t="s">
@@ -10928,7 +10948,7 @@
       <c r="C440" s="22" t="s">
         <v>812</v>
       </c>
-      <c r="D440" s="70" t="s">
+      <c r="D440" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E440" s="24" t="s">
@@ -10943,7 +10963,7 @@
         <v>813</v>
       </c>
       <c r="C441" s="21"/>
-      <c r="D441" s="70" t="s">
+      <c r="D441" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E441" s="24" t="s">
@@ -10960,7 +10980,7 @@
       <c r="C442" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="D442" s="70" t="s">
+      <c r="D442" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E442" s="23" t="s">
@@ -10977,7 +10997,7 @@
       <c r="C443" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="D443" s="70" t="s">
+      <c r="D443" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E443" s="24" t="s">
@@ -10994,7 +11014,7 @@
       <c r="C444" s="22" t="s">
         <v>819</v>
       </c>
-      <c r="D444" s="70" t="s">
+      <c r="D444" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E444" s="24" t="s">
@@ -11011,7 +11031,7 @@
       <c r="C445" s="22" t="s">
         <v>821</v>
       </c>
-      <c r="D445" s="70" t="s">
+      <c r="D445" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E445" s="24" t="s">
@@ -11026,7 +11046,7 @@
       </c>
       <c r="B446" s="21"/>
       <c r="C446" s="21"/>
-      <c r="D446" s="54"/>
+      <c r="D446" s="35"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="20"/>
@@ -11036,7 +11056,7 @@
       <c r="C447" s="22" t="s">
         <v>824</v>
       </c>
-      <c r="D447" s="70" t="s">
+      <c r="D447" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E447" s="23" t="s">
@@ -11053,7 +11073,7 @@
       <c r="C448" s="22" t="s">
         <v>826</v>
       </c>
-      <c r="D448" s="70" t="s">
+      <c r="D448" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E448" s="23" t="s">
@@ -11070,7 +11090,7 @@
       <c r="C449" s="22" t="s">
         <v>828</v>
       </c>
-      <c r="D449" s="70" t="s">
+      <c r="D449" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E449" s="23" t="s">
@@ -11087,7 +11107,7 @@
       <c r="C450" s="22" t="s">
         <v>830</v>
       </c>
-      <c r="D450" s="70" t="s">
+      <c r="D450" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E450" s="23" t="s">
@@ -11104,7 +11124,7 @@
       <c r="C451" s="22" t="s">
         <v>832</v>
       </c>
-      <c r="D451" s="70" t="s">
+      <c r="D451" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E451" s="23" t="s">
@@ -11121,7 +11141,7 @@
       <c r="C452" s="22" t="s">
         <v>834</v>
       </c>
-      <c r="D452" s="70" t="s">
+      <c r="D452" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E452" s="23" t="s">
@@ -11138,7 +11158,7 @@
       <c r="C453" s="22" t="s">
         <v>836</v>
       </c>
-      <c r="D453" s="70" t="s">
+      <c r="D453" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E453" s="23" t="s">
@@ -11155,7 +11175,7 @@
       <c r="C454" s="22" t="s">
         <v>838</v>
       </c>
-      <c r="D454" s="70" t="s">
+      <c r="D454" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E454" s="23" t="s">
@@ -11172,7 +11192,7 @@
       <c r="C455" s="22" t="s">
         <v>840</v>
       </c>
-      <c r="D455" s="70" t="s">
+      <c r="D455" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E455" s="23" t="s">
@@ -11189,7 +11209,7 @@
         <v>842</v>
       </c>
       <c r="C456" s="21"/>
-      <c r="D456" s="54"/>
+      <c r="D456" s="35"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="20"/>
@@ -11199,7 +11219,7 @@
       <c r="C457" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="D457" s="70" t="s">
+      <c r="D457" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E457" s="23" t="s">
@@ -11216,7 +11236,7 @@
       <c r="C458" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="D458" s="70" t="s">
+      <c r="D458" s="72" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11228,7 +11248,7 @@
       <c r="C459" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="D459" s="70" t="s">
+      <c r="D459" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E459" s="23" t="s">
@@ -11245,7 +11265,7 @@
       <c r="C460" s="22" t="s">
         <v>850</v>
       </c>
-      <c r="D460" s="70" t="s">
+      <c r="D460" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E460" s="23" t="s">
@@ -11262,7 +11282,7 @@
       <c r="C461" s="22" t="s">
         <v>852</v>
       </c>
-      <c r="D461" s="70" t="s">
+      <c r="D461" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E461" s="23" t="s">
@@ -11279,7 +11299,7 @@
       <c r="C462" s="22" t="s">
         <v>854</v>
       </c>
-      <c r="D462" s="54"/>
+      <c r="D462" s="35"/>
       <c r="E462" s="23" t="s">
         <v>22</v>
       </c>
@@ -11294,7 +11314,7 @@
       <c r="C463" s="22" t="s">
         <v>856</v>
       </c>
-      <c r="D463" s="70" t="s">
+      <c r="D463" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E463" s="23" t="s">
@@ -11311,7 +11331,7 @@
       <c r="C464" s="22" t="s">
         <v>858</v>
       </c>
-      <c r="D464" s="70" t="s">
+      <c r="D464" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E464" s="23" t="s">
@@ -11326,7 +11346,7 @@
       </c>
       <c r="B465" s="21"/>
       <c r="C465" s="21"/>
-      <c r="D465" s="54"/>
+      <c r="D465" s="35"/>
       <c r="E465" s="24"/>
       <c r="F465" s="24"/>
       <c r="G465" s="24"/>
@@ -11339,7 +11359,7 @@
       <c r="C466" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="D466" s="70" t="s">
+      <c r="D466" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E466" s="24" t="s">
@@ -11350,13 +11370,13 @@
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="20"/>
-      <c r="B467" s="31" t="s">
+      <c r="B467" s="32" t="s">
         <v>862</v>
       </c>
       <c r="C467" s="22" t="s">
         <v>863</v>
       </c>
-      <c r="D467" s="70" t="s">
+      <c r="D467" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E467" s="24" t="s">
@@ -11373,7 +11393,7 @@
       <c r="C468" s="22" t="s">
         <v>865</v>
       </c>
-      <c r="D468" s="70" t="s">
+      <c r="D468" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E468" s="24" t="s">
@@ -11384,13 +11404,13 @@
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="20"/>
-      <c r="B469" s="31" t="s">
+      <c r="B469" s="32" t="s">
         <v>866</v>
       </c>
       <c r="C469" s="22" t="s">
         <v>867</v>
       </c>
-      <c r="D469" s="70" t="s">
+      <c r="D469" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E469" s="24" t="s">
@@ -11407,7 +11427,7 @@
       <c r="C470" s="22" t="s">
         <v>869</v>
       </c>
-      <c r="D470" s="70" t="s">
+      <c r="D470" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E470" s="24" t="s">
@@ -11418,13 +11438,13 @@
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="20"/>
-      <c r="B471" s="31" t="s">
+      <c r="B471" s="32" t="s">
         <v>870</v>
       </c>
       <c r="C471" s="22" t="s">
         <v>871</v>
       </c>
-      <c r="D471" s="70" t="s">
+      <c r="D471" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E471" s="24" t="s">
@@ -11448,7 +11468,7 @@
       <c r="C473" s="22" t="s">
         <v>874</v>
       </c>
-      <c r="D473" s="70" t="s">
+      <c r="D473" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E473" s="23" t="s">
@@ -11465,7 +11485,7 @@
       <c r="C474" s="22" t="s">
         <v>876</v>
       </c>
-      <c r="D474" s="70" t="s">
+      <c r="D474" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E474" s="23" t="s">
@@ -11482,7 +11502,7 @@
       <c r="C475" s="22" t="s">
         <v>878</v>
       </c>
-      <c r="D475" s="70" t="s">
+      <c r="D475" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E475" s="23" t="s">
@@ -11499,7 +11519,7 @@
       <c r="C476" s="22" t="s">
         <v>880</v>
       </c>
-      <c r="D476" s="70" t="s">
+      <c r="D476" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E476" s="23" t="s">
@@ -11516,7 +11536,7 @@
       <c r="C477" s="22" t="s">
         <v>882</v>
       </c>
-      <c r="D477" s="70" t="s">
+      <c r="D477" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E477" s="23" t="s">
@@ -11533,7 +11553,7 @@
       <c r="C478" s="22" t="s">
         <v>884</v>
       </c>
-      <c r="D478" s="70" t="s">
+      <c r="D478" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E478" s="23" t="s">
@@ -11550,7 +11570,7 @@
       <c r="C479" s="22" t="s">
         <v>886</v>
       </c>
-      <c r="D479" s="70" t="s">
+      <c r="D479" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E479" s="23" t="s">
@@ -11567,7 +11587,7 @@
       <c r="C480" s="22" t="s">
         <v>888</v>
       </c>
-      <c r="D480" s="70" t="s">
+      <c r="D480" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E480" s="24" t="s">
@@ -11580,12 +11600,12 @@
       <c r="A481" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="B481" s="52"/>
-      <c r="C481" s="52"/>
-      <c r="D481" s="52"/>
-      <c r="E481" s="53"/>
-      <c r="F481" s="53"/>
-      <c r="G481" s="53"/>
+      <c r="B481" s="55"/>
+      <c r="C481" s="55"/>
+      <c r="D481" s="55"/>
+      <c r="E481" s="56"/>
+      <c r="F481" s="56"/>
+      <c r="G481" s="56"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="20" t="s">
@@ -11593,7 +11613,7 @@
       </c>
       <c r="B482" s="21"/>
       <c r="C482" s="21"/>
-      <c r="D482" s="54"/>
+      <c r="D482" s="35"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="20"/>
@@ -11601,14 +11621,14 @@
         <v>890</v>
       </c>
       <c r="C483" s="21"/>
-      <c r="D483" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E483" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F483" s="31"/>
-      <c r="G483" s="31"/>
+      <c r="D483" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E483" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F483" s="32"/>
+      <c r="G483" s="32"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="20"/>
@@ -11618,7 +11638,7 @@
       <c r="C484" s="22" t="s">
         <v>892</v>
       </c>
-      <c r="D484" s="70" t="s">
+      <c r="D484" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E484" s="23" t="s">
@@ -11635,7 +11655,7 @@
       <c r="C485" s="22" t="s">
         <v>894</v>
       </c>
-      <c r="D485" s="70" t="s">
+      <c r="D485" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E485" s="23" t="s">
@@ -11652,7 +11672,7 @@
       <c r="C486" s="22" t="s">
         <v>896</v>
       </c>
-      <c r="D486" s="70" t="s">
+      <c r="D486" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E486" s="23" t="s">
@@ -11667,7 +11687,7 @@
       </c>
       <c r="B487" s="21"/>
       <c r="C487" s="21"/>
-      <c r="D487" s="54"/>
+      <c r="D487" s="35"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="20"/>
@@ -11677,14 +11697,14 @@
       <c r="C488" s="22" t="s">
         <v>899</v>
       </c>
-      <c r="D488" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E488" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F488" s="31"/>
-      <c r="G488" s="31"/>
+      <c r="D488" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E488" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F488" s="32"/>
+      <c r="G488" s="32"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="20"/>
@@ -11692,7 +11712,7 @@
         <v>900</v>
       </c>
       <c r="C489" s="21"/>
-      <c r="D489" s="70" t="s">
+      <c r="D489" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E489" s="24" t="s">
@@ -11709,7 +11729,7 @@
       <c r="C490" s="22" t="s">
         <v>902</v>
       </c>
-      <c r="D490" s="70" t="s">
+      <c r="D490" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E490" s="24" t="s">
@@ -11726,7 +11746,7 @@
       <c r="C491" s="22" t="s">
         <v>904</v>
       </c>
-      <c r="D491" s="70" t="s">
+      <c r="D491" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E491" s="24" t="s">
@@ -11743,7 +11763,7 @@
       <c r="C492" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="D492" s="70" t="s">
+      <c r="D492" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E492" s="24" t="s">
@@ -11760,7 +11780,7 @@
       <c r="C493" s="22" t="s">
         <v>908</v>
       </c>
-      <c r="D493" s="70" t="s">
+      <c r="D493" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E493" s="23" t="s">
@@ -11777,7 +11797,7 @@
       <c r="C494" s="22" t="s">
         <v>910</v>
       </c>
-      <c r="D494" s="70" t="s">
+      <c r="D494" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E494" s="24" t="s">
@@ -11794,7 +11814,7 @@
       <c r="C495" s="22" t="s">
         <v>912</v>
       </c>
-      <c r="D495" s="70" t="s">
+      <c r="D495" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E495" s="24" t="s">
@@ -11811,7 +11831,7 @@
       <c r="C496" s="22" t="s">
         <v>914</v>
       </c>
-      <c r="D496" s="54" t="s">
+      <c r="D496" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E496" s="24" t="s">
@@ -11828,7 +11848,7 @@
       <c r="C497" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="D497" s="54" t="s">
+      <c r="D497" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E497" s="23" t="s">
@@ -11843,7 +11863,7 @@
       </c>
       <c r="B498" s="21"/>
       <c r="C498" s="21"/>
-      <c r="D498" s="54"/>
+      <c r="D498" s="35"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="20"/>
@@ -11853,14 +11873,14 @@
       <c r="C499" s="22" t="s">
         <v>918</v>
       </c>
-      <c r="D499" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E499" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F499" s="31"/>
-      <c r="G499" s="31"/>
+      <c r="D499" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E499" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F499" s="32"/>
+      <c r="G499" s="32"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="20"/>
@@ -11870,7 +11890,7 @@
       <c r="C500" s="22" t="s">
         <v>920</v>
       </c>
-      <c r="D500" s="54" t="s">
+      <c r="D500" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E500" s="24" t="s">
@@ -11887,7 +11907,7 @@
       <c r="C501" s="22" t="s">
         <v>922</v>
       </c>
-      <c r="D501" s="54" t="s">
+      <c r="D501" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E501" s="24" t="s">
@@ -11902,7 +11922,7 @@
       </c>
       <c r="B502" s="21"/>
       <c r="C502" s="21"/>
-      <c r="D502" s="54"/>
+      <c r="D502" s="35"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="20"/>
@@ -11912,14 +11932,14 @@
       <c r="C503" s="22" t="s">
         <v>925</v>
       </c>
-      <c r="D503" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E503" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F503" s="31"/>
-      <c r="G503" s="31"/>
+      <c r="D503" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E503" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F503" s="32"/>
+      <c r="G503" s="32"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="20"/>
@@ -11929,7 +11949,7 @@
       <c r="C504" s="22" t="s">
         <v>927</v>
       </c>
-      <c r="D504" s="70" t="s">
+      <c r="D504" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E504" s="24" t="s">
@@ -11946,7 +11966,7 @@
       <c r="C505" s="22" t="s">
         <v>929</v>
       </c>
-      <c r="D505" s="54" t="s">
+      <c r="D505" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E505" s="24" t="s">
@@ -11961,7 +11981,7 @@
       </c>
       <c r="B506" s="21"/>
       <c r="C506" s="21"/>
-      <c r="D506" s="54"/>
+      <c r="D506" s="35"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="20"/>
@@ -11971,14 +11991,14 @@
       <c r="C507" s="22" t="s">
         <v>737</v>
       </c>
-      <c r="D507" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E507" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F507" s="31"/>
-      <c r="G507" s="31"/>
+      <c r="D507" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E507" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F507" s="32"/>
+      <c r="G507" s="32"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="20"/>
@@ -11988,7 +12008,7 @@
       <c r="C508" s="22" t="s">
         <v>933</v>
       </c>
-      <c r="D508" s="70" t="s">
+      <c r="D508" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E508" s="23" t="s">
@@ -12005,7 +12025,7 @@
       <c r="C509" s="22" t="s">
         <v>935</v>
       </c>
-      <c r="D509" s="70" t="s">
+      <c r="D509" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E509" s="23" t="s">
@@ -12022,7 +12042,7 @@
       <c r="C510" s="22" t="s">
         <v>937</v>
       </c>
-      <c r="D510" s="54" t="s">
+      <c r="D510" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E510" s="23" t="s">
@@ -12039,7 +12059,7 @@
       <c r="C511" s="22" t="s">
         <v>939</v>
       </c>
-      <c r="D511" s="70" t="s">
+      <c r="D511" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E511" s="23" t="s">
@@ -12052,12 +12072,12 @@
       <c r="A512" s="17" t="s">
         <v>940</v>
       </c>
-      <c r="B512" s="50"/>
-      <c r="C512" s="50"/>
-      <c r="D512" s="52"/>
-      <c r="E512" s="51"/>
-      <c r="F512" s="51"/>
-      <c r="G512" s="51"/>
+      <c r="B512" s="53"/>
+      <c r="C512" s="53"/>
+      <c r="D512" s="55"/>
+      <c r="E512" s="54"/>
+      <c r="F512" s="54"/>
+      <c r="G512" s="54"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="20" t="s">
@@ -12074,7 +12094,7 @@
       <c r="C514" s="22" t="s">
         <v>943</v>
       </c>
-      <c r="D514" s="70" t="s">
+      <c r="D514" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E514" s="23" t="s">
@@ -12091,7 +12111,7 @@
       <c r="C515" s="22" t="s">
         <v>945</v>
       </c>
-      <c r="D515" s="70" t="s">
+      <c r="D515" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E515" s="23" t="s">
@@ -12108,7 +12128,7 @@
       <c r="C516" s="22" t="s">
         <v>947</v>
       </c>
-      <c r="D516" s="70" t="s">
+      <c r="D516" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E516" s="23" t="s">
@@ -12125,7 +12145,7 @@
       <c r="C517" s="22" t="s">
         <v>949</v>
       </c>
-      <c r="D517" s="70" t="s">
+      <c r="D517" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E517" s="23" t="s">
@@ -12142,7 +12162,7 @@
       <c r="C518" s="22" t="s">
         <v>951</v>
       </c>
-      <c r="D518" s="70" t="s">
+      <c r="D518" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E518" s="23" t="s">
@@ -12159,7 +12179,7 @@
       <c r="C519" s="22" t="s">
         <v>953</v>
       </c>
-      <c r="D519" s="70" t="s">
+      <c r="D519" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E519" s="23" t="s">
@@ -12172,14 +12192,14 @@
       <c r="A520" s="17" t="s">
         <v>954</v>
       </c>
-      <c r="B520" s="71" t="s">
+      <c r="B520" s="73" t="s">
         <v>955</v>
       </c>
-      <c r="C520" s="72"/>
-      <c r="D520" s="72"/>
-      <c r="E520" s="72"/>
-      <c r="F520" s="72"/>
-      <c r="G520" s="72"/>
+      <c r="C520" s="74"/>
+      <c r="D520" s="74"/>
+      <c r="E520" s="74"/>
+      <c r="F520" s="74"/>
+      <c r="G520" s="74"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="20" t="s">
@@ -12200,7 +12220,7 @@
       <c r="C522" s="22" t="s">
         <v>958</v>
       </c>
-      <c r="D522" s="70" t="s">
+      <c r="D522" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E522" s="22" t="s">
@@ -12217,7 +12237,7 @@
       <c r="C523" s="22" t="s">
         <v>960</v>
       </c>
-      <c r="D523" s="54" t="s">
+      <c r="D523" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E523" s="22" t="s">
@@ -12234,7 +12254,7 @@
       <c r="C524" s="22" t="s">
         <v>962</v>
       </c>
-      <c r="D524" s="70" t="s">
+      <c r="D524" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E524" s="22" t="s">
@@ -12251,7 +12271,7 @@
       <c r="C525" s="22" t="s">
         <v>964</v>
       </c>
-      <c r="D525" s="70" t="s">
+      <c r="D525" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E525" s="22" t="s">
@@ -12268,7 +12288,7 @@
       <c r="C526" s="22" t="s">
         <v>966</v>
       </c>
-      <c r="D526" s="54" t="s">
+      <c r="D526" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E526" s="22" t="s">
@@ -12285,7 +12305,7 @@
       <c r="C527" s="22" t="s">
         <v>968</v>
       </c>
-      <c r="D527" s="70" t="s">
+      <c r="D527" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E527" s="22" t="s">
@@ -12302,7 +12322,7 @@
       <c r="C528" s="22" t="s">
         <v>970</v>
       </c>
-      <c r="D528" s="54" t="s">
+      <c r="D528" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E528" s="22" t="s">
@@ -12319,7 +12339,7 @@
       <c r="C529" s="22" t="s">
         <v>972</v>
       </c>
-      <c r="D529" s="70" t="s">
+      <c r="D529" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E529" s="22" t="s">
@@ -12336,7 +12356,7 @@
       <c r="C530" s="22" t="s">
         <v>974</v>
       </c>
-      <c r="D530" s="70" t="s">
+      <c r="D530" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E530" s="22" t="s">
@@ -12353,7 +12373,7 @@
       <c r="C531" s="22" t="s">
         <v>976</v>
       </c>
-      <c r="D531" s="70" t="s">
+      <c r="D531" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E531" s="22" t="s">
@@ -12370,7 +12390,7 @@
       <c r="C532" s="22" t="s">
         <v>978</v>
       </c>
-      <c r="D532" s="70" t="s">
+      <c r="D532" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E532" s="22" t="s">
@@ -12387,7 +12407,7 @@
       <c r="C533" s="22" t="s">
         <v>980</v>
       </c>
-      <c r="D533" s="70" t="s">
+      <c r="D533" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E533" s="22" t="s">
@@ -12404,7 +12424,7 @@
       <c r="C534" s="22" t="s">
         <v>982</v>
       </c>
-      <c r="D534" s="70" t="s">
+      <c r="D534" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E534" s="22" t="s">
@@ -12421,7 +12441,7 @@
       <c r="C535" s="22" t="s">
         <v>984</v>
       </c>
-      <c r="D535" s="70" t="s">
+      <c r="D535" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E535" s="22" t="s">
@@ -12431,44 +12451,44 @@
       <c r="G535" s="21"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="72"/>
-      <c r="B536" s="72"/>
-      <c r="C536" s="72"/>
-      <c r="D536" s="52"/>
-      <c r="E536" s="72"/>
-      <c r="F536" s="72"/>
-      <c r="G536" s="72"/>
+      <c r="A536" s="74"/>
+      <c r="B536" s="74"/>
+      <c r="C536" s="74"/>
+      <c r="D536" s="55"/>
+      <c r="E536" s="74"/>
+      <c r="F536" s="74"/>
+      <c r="G536" s="74"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A537" s="73" t="s">
+      <c r="A537" s="75" t="s">
         <v>985</v>
       </c>
-      <c r="B537" s="73"/>
-      <c r="C537" s="73"/>
-      <c r="D537" s="73"/>
-      <c r="E537" s="73"/>
+      <c r="B537" s="75"/>
+      <c r="C537" s="75"/>
+      <c r="D537" s="75"/>
+      <c r="E537" s="75"/>
       <c r="F537" s="20"/>
       <c r="G537" s="20"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A538" s="74" t="s">
+      <c r="A538" s="76" t="s">
         <v>986</v>
       </c>
-      <c r="B538" s="74"/>
-      <c r="C538" s="74"/>
-      <c r="D538" s="74"/>
-      <c r="E538" s="74"/>
-      <c r="F538" s="75"/>
-      <c r="G538" s="75"/>
+      <c r="B538" s="76"/>
+      <c r="C538" s="76"/>
+      <c r="D538" s="76"/>
+      <c r="E538" s="76"/>
+      <c r="F538" s="77"/>
+      <c r="G538" s="77"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="72"/>
-      <c r="B539" s="52"/>
-      <c r="C539" s="52"/>
-      <c r="D539" s="53"/>
-      <c r="E539" s="53"/>
-      <c r="F539" s="53"/>
-      <c r="G539" s="53"/>
+      <c r="A539" s="74"/>
+      <c r="B539" s="55"/>
+      <c r="C539" s="55"/>
+      <c r="D539" s="56"/>
+      <c r="E539" s="56"/>
+      <c r="F539" s="56"/>
+      <c r="G539" s="56"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="20"/>
@@ -12476,54 +12496,54 @@
       <c r="C540" s="21"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A541" s="76" t="s">
+      <c r="A541" s="78" t="s">
         <v>987</v>
       </c>
-      <c r="B541" s="77" t="s">
+      <c r="B541" s="79" t="s">
         <v>988</v>
       </c>
-      <c r="C541" s="77"/>
-      <c r="D541" s="77"/>
-      <c r="E541" s="77"/>
-      <c r="F541" s="78"/>
-      <c r="G541" s="78"/>
+      <c r="C541" s="79"/>
+      <c r="D541" s="79"/>
+      <c r="E541" s="79"/>
+      <c r="F541" s="80"/>
+      <c r="G541" s="80"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A542" s="79" t="s">
+      <c r="A542" s="81" t="s">
         <v>989</v>
       </c>
-      <c r="B542" s="80" t="s">
+      <c r="B542" s="82" t="s">
         <v>990</v>
       </c>
-      <c r="C542" s="80"/>
-      <c r="D542" s="80"/>
-      <c r="E542" s="80"/>
-      <c r="F542" s="78"/>
-      <c r="G542" s="78"/>
+      <c r="C542" s="82"/>
+      <c r="D542" s="82"/>
+      <c r="E542" s="82"/>
+      <c r="F542" s="80"/>
+      <c r="G542" s="80"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A543" s="81" t="s">
+      <c r="A543" s="83" t="s">
         <v>991</v>
       </c>
-      <c r="B543" s="82" t="s">
+      <c r="B543" s="84" t="s">
         <v>992</v>
       </c>
-      <c r="C543" s="82"/>
-      <c r="D543" s="82"/>
-      <c r="E543" s="82"/>
-      <c r="F543" s="78"/>
-      <c r="G543" s="78"/>
+      <c r="C543" s="84"/>
+      <c r="D543" s="84"/>
+      <c r="E543" s="84"/>
+      <c r="F543" s="80"/>
+      <c r="G543" s="80"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A544" s="83" t="s">
+      <c r="A544" s="85" t="s">
         <v>993</v>
       </c>
-      <c r="B544" s="83"/>
-      <c r="C544" s="83"/>
-      <c r="D544" s="83"/>
-      <c r="E544" s="83"/>
-      <c r="F544" s="83"/>
-      <c r="G544" s="83"/>
+      <c r="B544" s="85"/>
+      <c r="C544" s="85"/>
+      <c r="D544" s="85"/>
+      <c r="E544" s="85"/>
+      <c r="F544" s="85"/>
+      <c r="G544" s="85"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="20"/>
